--- a/Copy of OSSU DATA SCIENCE Timeline.xlsx
+++ b/Copy of OSSU DATA SCIENCE Timeline.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MEGA_BACKUP\data-science\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7F59D9-0E22-4216-9F88-57743F780668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Timeline" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Curriculum Data" sheetId="2" r:id="rId5"/>
+    <sheet name="Timeline" sheetId="1" r:id="rId1"/>
+    <sheet name="Curriculum Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -194,33 +214,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot; &quot;mmm&quot; &quot;dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="m-d"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -228,28 +250,32 @@
     <font>
       <b/>
       <u/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -257,7 +283,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -291,96 +317,104 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -397,7 +431,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -410,15 +444,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Curriculum Data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>End Date Estimate Lower Bound</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -434,15 +477,194 @@
           <c:cat>
             <c:strRef>
               <c:f>'Curriculum Data'!$A$2:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>What is Data Science</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Python for Everybody</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Introduction to Computer Science and Programming using Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Introduction to Computational Thinking and Data Science</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java Programming</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Algorithms, Part I</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Algorithms, Part II</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Database Management Essentials</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Data Warehouse Concepts, Design, and Data Integration</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Relational Database Support for Data Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Business Intelligence Concepts, Tools, and Applications</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Design and Build a Data Warehouse for Business Intelligence Implementation</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MongoDB for Developers Learning Path</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Calculus 1A: Differentiation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Calculus 1B: Integration</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Calculus 1C: Coordinate Systems &amp; Infinite Series</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Linear Algebra</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Multivariable Calculus</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Introduction to Probability</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Intro to Descriptive Statistics</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Intro to Inferential Statistics</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Tools for Data Science</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Data Science Methodology</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Data Science: Wrangling</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Machine Learning</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Intro to Machine Learning</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mining Massive Datasets</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Process Mining</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Curriculum Data'!$H$2:$H$48</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46064.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46162.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46236.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46324.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46375.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46407.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46438.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46487.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46543.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46652.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46743.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46785.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47020.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47255.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47325.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47374.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47423.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47450.399999999987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47464.399999999987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47475.599999999984</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47559.599999999984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47629.599999999984</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47678.599999999984</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47709.399999999987</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4D7-40E8-B195-73F895A27DF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -450,6 +672,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'Curriculum Data'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>End Date Estimate Upper Bound</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -465,16 +693,204 @@
           <c:cat>
             <c:strRef>
               <c:f>'Curriculum Data'!$A$2:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>What is Data Science</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Python for Everybody</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Introduction to Computer Science and Programming using Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Introduction to Computational Thinking and Data Science</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Java Programming</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Algorithms, Part I</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Algorithms, Part II</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Database Management Essentials</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Data Warehouse Concepts, Design, and Data Integration</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Relational Database Support for Data Warehouses</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Business Intelligence Concepts, Tools, and Applications</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Design and Build a Data Warehouse for Business Intelligence Implementation</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MongoDB for Developers Learning Path</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Calculus 1A: Differentiation</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Calculus 1B: Integration</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Calculus 1C: Coordinate Systems &amp; Infinite Series</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Linear Algebra</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Multivariable Calculus</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Introduction to Probability</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Intro to Descriptive Statistics</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Intro to Inferential Statistics</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Tools for Data Science</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Data Science Methodology</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Data Science: Wrangling</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Machine Learning</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Intro to Machine Learning</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mining Massive Datasets</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Process Mining</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Curriculum Data'!$J$2:$J$48</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>45559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46089.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46481.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46555.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46643.999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46694.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46726.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46757.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46788.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46806.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46918.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47100.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47282.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47366.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47601.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47836.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47976.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48074.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48172.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48199.399999999987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48213.399999999987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48235.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48319.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48459.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48557.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48588.599999999991</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4D7-40E8-B195-73F895A27DF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="641052335"/>
         <c:axId val="357752445"/>
       </c:lineChart>
@@ -500,7 +916,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -516,7 +932,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -529,9 +945,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="357752445"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="357752445"/>
@@ -575,7 +997,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -588,7 +1010,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -607,9 +1029,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="641052335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -627,16 +1052,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -645,9 +1078,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11430000" cy="6810375"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -656,7 +1095,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -665,12 +1104,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -860,39 +1295,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6FA8DC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="27.5"/>
-    <col customWidth="1" min="3" max="4" width="27.25"/>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="26"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -909,163 +1350,163 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>44588.0</v>
+        <v>45545</v>
       </c>
       <c r="B3" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <f>'Curriculum Data'!H29</f>
-        <v>46752.4</v>
+        <v>47709.399999999987</v>
       </c>
       <c r="D3" s="8">
         <f>'Curriculum Data'!J29</f>
-        <v>47631.6</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>48588.599999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
     </row>
@@ -1073,52 +1514,54 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="B3">
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0.1</formula1>
-      <formula2>112.0</formula2>
+      <formula2>112</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A3">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A3))), AND(ISNUMBER(A3), LEFT(CELL("format", A3))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.0"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="10.5"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
-    <col customWidth="1" min="5" max="5" width="12.88"/>
-    <col customWidth="1" min="6" max="6" width="13.0"/>
-    <col customWidth="1" min="7" max="7" width="9.5"/>
-    <col customWidth="1" min="8" max="8" width="12.0"/>
-    <col customWidth="1" min="9" max="9" width="9.5"/>
-    <col customWidth="1" min="10" max="10" width="12.25"/>
-    <col customWidth="1" min="11" max="11" width="13.75"/>
+    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -1161,36 +1604,36 @@
         <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="16">
         <f>Timeline!A3</f>
-        <v>44588</v>
+        <v>45545</v>
       </c>
       <c r="H2" s="17">
-        <f>if(isblank(K2),G2+(E2/(Timeline!$B$3/7)),K2)</f>
-        <v>44602</v>
+        <f>IF(ISBLANK(K2),G2+(E2/(Timeline!$B$3/7)),K2)</f>
+        <v>45559</v>
       </c>
       <c r="I2" s="16">
         <f>Timeline!A3</f>
-        <v>44588</v>
+        <v>45545</v>
       </c>
       <c r="J2" s="17">
-        <f>if(isblank(K2),I2+(F2/(Timeline!$B$3/7)),K2)</f>
-        <v>44602</v>
+        <f>IF(ISBLANK(K2),I2+(F2/(Timeline!$B$3/7)),K2)</f>
+        <v>45559</v>
       </c>
       <c r="K2" s="18"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
@@ -1198,73 +1641,73 @@
         <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G3" s="20">
-        <f t="shared" ref="G3:G29" si="1">if(isblank(K2),H2,K2)</f>
-        <v>44602</v>
+        <v>100</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G29" si="0">IF(ISBLANK(K2),H2,K2)</f>
+        <v>45559</v>
       </c>
       <c r="H3" s="17">
-        <f>if(isblank(K3),G3+(E3/(Timeline!$B$3/7)),K3)</f>
-        <v>44742</v>
-      </c>
-      <c r="I3" s="20">
-        <f t="shared" ref="I3:I29" si="2">if(isblank(K2),J2,K2)</f>
-        <v>44602</v>
+        <f>IF(ISBLANK(K3),G3+(E3/(Timeline!$B$3/7)),K3)</f>
+        <v>45699</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I29" si="1">IF(ISBLANK(K2),J2,K2)</f>
+        <v>45559</v>
       </c>
       <c r="J3" s="17">
-        <f>if(isblank(K3),I3+(F3/(Timeline!$B$3/7)),K3)</f>
-        <v>44742</v>
+        <f>IF(ISBLANK(K3),I3+(F3/(Timeline!$B$3/7)),K3)</f>
+        <v>45699</v>
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="F4" s="2">
-        <v>135.0</v>
-      </c>
-      <c r="G4" s="20">
+        <v>135</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>45699</v>
+      </c>
+      <c r="H4" s="17">
+        <f>IF(ISBLANK(K4),G4+(E4/(Timeline!$B$3/7)),K4)</f>
+        <v>45888</v>
+      </c>
+      <c r="I4" s="16">
         <f t="shared" si="1"/>
-        <v>44742</v>
-      </c>
-      <c r="H4" s="17">
-        <f>if(isblank(K4),G4+(E4/(Timeline!$B$3/7)),K4)</f>
-        <v>44931</v>
-      </c>
-      <c r="I4" s="20">
-        <f t="shared" si="2"/>
-        <v>44742</v>
+        <v>45699</v>
       </c>
       <c r="J4" s="17">
-        <f>if(isblank(K4),I4+(F4/(Timeline!$B$3/7)),K4)</f>
-        <v>44931</v>
+        <f>IF(ISBLANK(K4),I4+(F4/(Timeline!$B$3/7)),K4)</f>
+        <v>45888</v>
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
@@ -1272,36 +1715,36 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="2">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2">
-        <v>144.0</v>
-      </c>
-      <c r="G5" s="20">
+        <v>144</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>45888</v>
+      </c>
+      <c r="H5" s="17">
+        <f>IF(ISBLANK(K5),G5+(E5/(Timeline!$B$3/7)),K5)</f>
+        <v>46064.4</v>
+      </c>
+      <c r="I5" s="16">
         <f t="shared" si="1"/>
-        <v>44931</v>
-      </c>
-      <c r="H5" s="17">
-        <f>if(isblank(K5),G5+(E5/(Timeline!$B$3/7)),K5)</f>
-        <v>45107.4</v>
-      </c>
-      <c r="I5" s="20">
-        <f t="shared" si="2"/>
-        <v>44931</v>
+        <v>45888</v>
       </c>
       <c r="J5" s="17">
-        <f>if(isblank(K5),I5+(F5/(Timeline!$B$3/7)),K5)</f>
-        <v>45132.6</v>
-      </c>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6">
+        <f>IF(ISBLANK(K5),I5+(F5/(Timeline!$B$3/7)),K5)</f>
+        <v>46089.599999999999</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
@@ -1309,36 +1752,36 @@
         <v>28</v>
       </c>
       <c r="C6" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>43971.0</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="22">
+        <v>43971</v>
       </c>
       <c r="E6" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2">
-        <v>280.0</v>
-      </c>
-      <c r="G6" s="20">
+        <v>280</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>46064.4</v>
+      </c>
+      <c r="H6" s="17">
+        <f>IF(ISBLANK(K6),G6+(E6/(Timeline!$B$3/7)),K6)</f>
+        <v>46162.400000000001</v>
+      </c>
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
-        <v>45107.4</v>
-      </c>
-      <c r="H6" s="17">
-        <f>if(isblank(K6),G6+(E6/(Timeline!$B$3/7)),K6)</f>
-        <v>45205.4</v>
-      </c>
-      <c r="I6" s="20">
-        <f t="shared" si="2"/>
-        <v>45132.6</v>
+        <v>46089.599999999999</v>
       </c>
       <c r="J6" s="17">
-        <f>if(isblank(K6),I6+(F6/(Timeline!$B$3/7)),K6)</f>
-        <v>45524.6</v>
-      </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7">
+        <f>IF(ISBLANK(K6),I6+(F6/(Timeline!$B$3/7)),K6)</f>
+        <v>46481.599999999999</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -1346,34 +1789,34 @@
         <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="G7" s="20">
+        <v>53</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>46162.400000000001</v>
+      </c>
+      <c r="H7" s="17">
+        <f>IF(ISBLANK(K7),G7+(E7/(Timeline!$B$3/7)),K7)</f>
+        <v>46236.6</v>
+      </c>
+      <c r="I7" s="16">
         <f t="shared" si="1"/>
-        <v>45205.4</v>
-      </c>
-      <c r="H7" s="17">
-        <f>if(isblank(K7),G7+(E7/(Timeline!$B$3/7)),K7)</f>
-        <v>45279.6</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="2"/>
-        <v>45524.6</v>
+        <v>46481.599999999999</v>
       </c>
       <c r="J7" s="17">
-        <f>if(isblank(K7),I7+(F7/(Timeline!$B$3/7)),K7)</f>
-        <v>45598.8</v>
-      </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8">
+        <f>IF(ISBLANK(K7),I7+(F7/(Timeline!$B$3/7)),K7)</f>
+        <v>46555.799999999996</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
@@ -1381,34 +1824,34 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2">
-        <v>63.0</v>
-      </c>
-      <c r="G8" s="20">
+        <v>63</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>46236.6</v>
+      </c>
+      <c r="H8" s="17">
+        <f>IF(ISBLANK(K8),G8+(E8/(Timeline!$B$3/7)),K8)</f>
+        <v>46324.799999999996</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="1"/>
-        <v>45279.6</v>
-      </c>
-      <c r="H8" s="17">
-        <f>if(isblank(K8),G8+(E8/(Timeline!$B$3/7)),K8)</f>
-        <v>45367.8</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" si="2"/>
-        <v>45598.8</v>
+        <v>46555.799999999996</v>
       </c>
       <c r="J8" s="17">
-        <f>if(isblank(K8),I8+(F8/(Timeline!$B$3/7)),K8)</f>
-        <v>45687</v>
-      </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9">
+        <f>IF(ISBLANK(K8),I8+(F8/(Timeline!$B$3/7)),K8)</f>
+        <v>46643.999999999993</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
@@ -1416,34 +1859,34 @@
         <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="G9" s="20">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>46324.799999999996</v>
+      </c>
+      <c r="H9" s="17">
+        <f>IF(ISBLANK(K9),G9+(E9/(Timeline!$B$3/7)),K9)</f>
+        <v>46375.199999999997</v>
+      </c>
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
-        <v>45367.8</v>
-      </c>
-      <c r="H9" s="17">
-        <f>if(isblank(K9),G9+(E9/(Timeline!$B$3/7)),K9)</f>
-        <v>45418.2</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" si="2"/>
-        <v>45687</v>
+        <v>46643.999999999993</v>
       </c>
       <c r="J9" s="17">
-        <f>if(isblank(K9),I9+(F9/(Timeline!$B$3/7)),K9)</f>
-        <v>45737.4</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10">
+        <f>IF(ISBLANK(K9),I9+(F9/(Timeline!$B$3/7)),K9)</f>
+        <v>46694.399999999994</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -1451,34 +1894,34 @@
         <v>32</v>
       </c>
       <c r="C10" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="G10" s="20">
+        <v>23</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>46375.199999999997</v>
+      </c>
+      <c r="H10" s="17">
+        <f>IF(ISBLANK(K10),G10+(E10/(Timeline!$B$3/7)),K10)</f>
+        <v>46407.399999999994</v>
+      </c>
+      <c r="I10" s="16">
         <f t="shared" si="1"/>
-        <v>45418.2</v>
-      </c>
-      <c r="H10" s="17">
-        <f>if(isblank(K10),G10+(E10/(Timeline!$B$3/7)),K10)</f>
-        <v>45450.4</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="2"/>
-        <v>45737.4</v>
+        <v>46694.399999999994</v>
       </c>
       <c r="J10" s="17">
-        <f>if(isblank(K10),I10+(F10/(Timeline!$B$3/7)),K10)</f>
-        <v>45769.6</v>
-      </c>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11">
+        <f>IF(ISBLANK(K10),I10+(F10/(Timeline!$B$3/7)),K10)</f>
+        <v>46726.599999999991</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
@@ -1486,34 +1929,34 @@
         <v>32</v>
       </c>
       <c r="C11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="G11" s="20">
+        <v>22</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>46407.399999999994</v>
+      </c>
+      <c r="H11" s="17">
+        <f>IF(ISBLANK(K11),G11+(E11/(Timeline!$B$3/7)),K11)</f>
+        <v>46438.2</v>
+      </c>
+      <c r="I11" s="16">
         <f t="shared" si="1"/>
-        <v>45450.4</v>
-      </c>
-      <c r="H11" s="17">
-        <f>if(isblank(K11),G11+(E11/(Timeline!$B$3/7)),K11)</f>
-        <v>45481.2</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" si="2"/>
-        <v>45769.6</v>
+        <v>46726.599999999991</v>
       </c>
       <c r="J11" s="17">
-        <f>if(isblank(K11),I11+(F11/(Timeline!$B$3/7)),K11)</f>
-        <v>45800.4</v>
-      </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12">
+        <f>IF(ISBLANK(K11),I11+(F11/(Timeline!$B$3/7)),K11)</f>
+        <v>46757.399999999994</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -1521,34 +1964,34 @@
         <v>32</v>
       </c>
       <c r="C12" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="G12" s="20">
+        <v>22</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" si="0"/>
+        <v>46438.2</v>
+      </c>
+      <c r="H12" s="17">
+        <f>IF(ISBLANK(K12),G12+(E12/(Timeline!$B$3/7)),K12)</f>
+        <v>46469</v>
+      </c>
+      <c r="I12" s="16">
         <f t="shared" si="1"/>
-        <v>45481.2</v>
-      </c>
-      <c r="H12" s="17">
-        <f>if(isblank(K12),G12+(E12/(Timeline!$B$3/7)),K12)</f>
-        <v>45512</v>
-      </c>
-      <c r="I12" s="20">
-        <f t="shared" si="2"/>
-        <v>45800.4</v>
+        <v>46757.399999999994</v>
       </c>
       <c r="J12" s="17">
-        <f>if(isblank(K12),I12+(F12/(Timeline!$B$3/7)),K12)</f>
-        <v>45831.2</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13">
+        <f>IF(ISBLANK(K12),I12+(F12/(Timeline!$B$3/7)),K12)</f>
+        <v>46788.2</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -1556,34 +1999,34 @@
         <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="G13" s="20">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>46469</v>
+      </c>
+      <c r="H13" s="17">
+        <f>IF(ISBLANK(K13),G13+(E13/(Timeline!$B$3/7)),K13)</f>
+        <v>46487.199999999997</v>
+      </c>
+      <c r="I13" s="16">
         <f t="shared" si="1"/>
-        <v>45512</v>
-      </c>
-      <c r="H13" s="17">
-        <f>if(isblank(K13),G13+(E13/(Timeline!$B$3/7)),K13)</f>
-        <v>45530.2</v>
-      </c>
-      <c r="I13" s="20">
-        <f t="shared" si="2"/>
-        <v>45831.2</v>
+        <v>46788.2</v>
       </c>
       <c r="J13" s="17">
-        <f>if(isblank(K13),I13+(F13/(Timeline!$B$3/7)),K13)</f>
-        <v>45849.4</v>
-      </c>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14">
+        <f>IF(ISBLANK(K13),I13+(F13/(Timeline!$B$3/7)),K13)</f>
+        <v>46806.399999999994</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -1591,34 +2034,34 @@
         <v>32</v>
       </c>
       <c r="C14" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="G14" s="20">
+        <v>80</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="0"/>
+        <v>46487.199999999997</v>
+      </c>
+      <c r="H14" s="17">
+        <f>IF(ISBLANK(K14),G14+(E14/(Timeline!$B$3/7)),K14)</f>
+        <v>46543.199999999997</v>
+      </c>
+      <c r="I14" s="16">
         <f t="shared" si="1"/>
-        <v>45530.2</v>
-      </c>
-      <c r="H14" s="17">
-        <f>if(isblank(K14),G14+(E14/(Timeline!$B$3/7)),K14)</f>
-        <v>45586.2</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" si="2"/>
-        <v>45849.4</v>
+        <v>46806.399999999994</v>
       </c>
       <c r="J14" s="17">
-        <f>if(isblank(K14),I14+(F14/(Timeline!$B$3/7)),K14)</f>
-        <v>45961.4</v>
-      </c>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15">
+        <f>IF(ISBLANK(K14),I14+(F14/(Timeline!$B$3/7)),K14)</f>
+        <v>46918.399999999994</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
@@ -1628,34 +2071,34 @@
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="23">
-        <v>43992.0</v>
+      <c r="D15" s="22">
+        <v>43992</v>
       </c>
       <c r="E15" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2">
-        <v>130.0</v>
-      </c>
-      <c r="G15" s="20">
+        <v>130</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>46543.199999999997</v>
+      </c>
+      <c r="H15" s="17">
+        <f>IF(ISBLANK(K15),G15+(E15/(Timeline!$B$3/7)),K15)</f>
+        <v>46652.399999999994</v>
+      </c>
+      <c r="I15" s="16">
         <f t="shared" si="1"/>
-        <v>45586.2</v>
-      </c>
-      <c r="H15" s="17">
-        <f>if(isblank(K15),G15+(E15/(Timeline!$B$3/7)),K15)</f>
-        <v>45695.4</v>
-      </c>
-      <c r="I15" s="20">
-        <f t="shared" si="2"/>
-        <v>45961.4</v>
+        <v>46918.399999999994</v>
       </c>
       <c r="J15" s="17">
-        <f>if(isblank(K15),I15+(F15/(Timeline!$B$3/7)),K15)</f>
-        <v>46143.4</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16">
+        <f>IF(ISBLANK(K15),I15+(F15/(Timeline!$B$3/7)),K15)</f>
+        <v>47100.399999999994</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>41</v>
       </c>
@@ -1665,34 +2108,34 @@
       <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="23">
-        <v>43961.0</v>
+      <c r="D16" s="22">
+        <v>43961</v>
       </c>
       <c r="E16" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2">
-        <v>130.0</v>
-      </c>
-      <c r="G16" s="20">
+        <v>130</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="0"/>
+        <v>46652.399999999994</v>
+      </c>
+      <c r="H16" s="17">
+        <f>IF(ISBLANK(K16),G16+(E16/(Timeline!$B$3/7)),K16)</f>
+        <v>46743.399999999994</v>
+      </c>
+      <c r="I16" s="16">
         <f t="shared" si="1"/>
-        <v>45695.4</v>
-      </c>
-      <c r="H16" s="17">
-        <f>if(isblank(K16),G16+(E16/(Timeline!$B$3/7)),K16)</f>
-        <v>45786.4</v>
-      </c>
-      <c r="I16" s="20">
-        <f t="shared" si="2"/>
-        <v>46143.4</v>
+        <v>47100.399999999994</v>
       </c>
       <c r="J16" s="17">
-        <f>if(isblank(K16),I16+(F16/(Timeline!$B$3/7)),K16)</f>
-        <v>46325.4</v>
-      </c>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17">
+        <f>IF(ISBLANK(K16),I16+(F16/(Timeline!$B$3/7)),K16)</f>
+        <v>47282.399999999994</v>
+      </c>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>42</v>
       </c>
@@ -1702,34 +2145,34 @@
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="23">
-        <v>43961.0</v>
+      <c r="D17" s="22">
+        <v>43961</v>
       </c>
       <c r="E17" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="G17" s="20">
+        <v>60</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="0"/>
+        <v>46743.399999999994</v>
+      </c>
+      <c r="H17" s="17">
+        <f>IF(ISBLANK(K17),G17+(E17/(Timeline!$B$3/7)),K17)</f>
+        <v>46785.399999999994</v>
+      </c>
+      <c r="I17" s="16">
         <f t="shared" si="1"/>
-        <v>45786.4</v>
-      </c>
-      <c r="H17" s="17">
-        <f>if(isblank(K17),G17+(E17/(Timeline!$B$3/7)),K17)</f>
-        <v>45828.4</v>
-      </c>
-      <c r="I17" s="20">
-        <f t="shared" si="2"/>
-        <v>46325.4</v>
+        <v>47282.399999999994</v>
       </c>
       <c r="J17" s="17">
-        <f>if(isblank(K17),I17+(F17/(Timeline!$B$3/7)),K17)</f>
-        <v>46409.4</v>
-      </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18">
+        <f>IF(ISBLANK(K17),I17+(F17/(Timeline!$B$3/7)),K17)</f>
+        <v>47366.399999999994</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -1737,36 +2180,36 @@
         <v>44</v>
       </c>
       <c r="C18" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="F18" s="2">
-        <v>168.0</v>
-      </c>
-      <c r="G18" s="20">
+        <v>168</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
+        <v>46785.399999999994</v>
+      </c>
+      <c r="H18" s="17">
+        <f>IF(ISBLANK(K18),G18+(E18/(Timeline!$B$3/7)),K18)</f>
+        <v>47020.599999999991</v>
+      </c>
+      <c r="I18" s="16">
         <f t="shared" si="1"/>
-        <v>45828.4</v>
-      </c>
-      <c r="H18" s="17">
-        <f>if(isblank(K18),G18+(E18/(Timeline!$B$3/7)),K18)</f>
-        <v>46063.6</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" si="2"/>
-        <v>46409.4</v>
+        <v>47366.399999999994</v>
       </c>
       <c r="J18" s="17">
-        <f>if(isblank(K18),I18+(F18/(Timeline!$B$3/7)),K18)</f>
-        <v>46644.6</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19">
+        <f>IF(ISBLANK(K18),I18+(F18/(Timeline!$B$3/7)),K18)</f>
+        <v>47601.599999999991</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
@@ -1774,36 +2217,36 @@
         <v>45</v>
       </c>
       <c r="C19" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="F19" s="2">
-        <v>168.0</v>
-      </c>
-      <c r="G19" s="20">
+        <v>168</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="0"/>
+        <v>47020.599999999991</v>
+      </c>
+      <c r="H19" s="17">
+        <f>IF(ISBLANK(K19),G19+(E19/(Timeline!$B$3/7)),K19)</f>
+        <v>47255.799999999988</v>
+      </c>
+      <c r="I19" s="16">
         <f t="shared" si="1"/>
-        <v>46063.6</v>
-      </c>
-      <c r="H19" s="17">
-        <f>if(isblank(K19),G19+(E19/(Timeline!$B$3/7)),K19)</f>
-        <v>46298.8</v>
-      </c>
-      <c r="I19" s="20">
-        <f t="shared" si="2"/>
-        <v>46644.6</v>
+        <v>47601.599999999991</v>
       </c>
       <c r="J19" s="17">
-        <f>if(isblank(K19),I19+(F19/(Timeline!$B$3/7)),K19)</f>
-        <v>46879.8</v>
-      </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20">
+        <f>IF(ISBLANK(K19),I19+(F19/(Timeline!$B$3/7)),K19)</f>
+        <v>47836.799999999988</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -1811,36 +2254,36 @@
         <v>47</v>
       </c>
       <c r="C20" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>43961.0</v>
+        <v>10</v>
+      </c>
+      <c r="D20" s="22">
+        <v>43961</v>
       </c>
       <c r="E20" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G20" s="20">
+        <v>100</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>47255.799999999988</v>
+      </c>
+      <c r="H20" s="17">
+        <f>IF(ISBLANK(K20),G20+(E20/(Timeline!$B$3/7)),K20)</f>
+        <v>47325.799999999988</v>
+      </c>
+      <c r="I20" s="16">
         <f t="shared" si="1"/>
-        <v>46298.8</v>
-      </c>
-      <c r="H20" s="17">
-        <f>if(isblank(K20),G20+(E20/(Timeline!$B$3/7)),K20)</f>
-        <v>46368.8</v>
-      </c>
-      <c r="I20" s="20">
-        <f t="shared" si="2"/>
-        <v>46879.8</v>
+        <v>47836.799999999988</v>
       </c>
       <c r="J20" s="17">
-        <f>if(isblank(K20),I20+(F20/(Timeline!$B$3/7)),K20)</f>
-        <v>47019.8</v>
-      </c>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21">
+        <f>IF(ISBLANK(K20),I20+(F20/(Timeline!$B$3/7)),K20)</f>
+        <v>47976.799999999988</v>
+      </c>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
@@ -1848,36 +2291,36 @@
         <v>47</v>
       </c>
       <c r="C21" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D21" s="23">
-        <v>43961.0</v>
+        <v>7</v>
+      </c>
+      <c r="D21" s="22">
+        <v>43961</v>
       </c>
       <c r="E21" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="G21" s="20">
+        <v>70</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="0"/>
+        <v>47325.799999999988</v>
+      </c>
+      <c r="H21" s="17">
+        <f>IF(ISBLANK(K21),G21+(E21/(Timeline!$B$3/7)),K21)</f>
+        <v>47374.799999999988</v>
+      </c>
+      <c r="I21" s="16">
         <f t="shared" si="1"/>
-        <v>46368.8</v>
-      </c>
-      <c r="H21" s="17">
-        <f>if(isblank(K21),G21+(E21/(Timeline!$B$3/7)),K21)</f>
-        <v>46417.8</v>
-      </c>
-      <c r="I21" s="20">
-        <f t="shared" si="2"/>
-        <v>47019.8</v>
+        <v>47976.799999999988</v>
       </c>
       <c r="J21" s="17">
-        <f>if(isblank(K21),I21+(F21/(Timeline!$B$3/7)),K21)</f>
-        <v>47117.8</v>
-      </c>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22">
+        <f>IF(ISBLANK(K21),I21+(F21/(Timeline!$B$3/7)),K21)</f>
+        <v>48074.799999999988</v>
+      </c>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>49</v>
       </c>
@@ -1885,36 +2328,36 @@
         <v>47</v>
       </c>
       <c r="C22" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D22" s="23">
-        <v>43961.0</v>
+        <v>7</v>
+      </c>
+      <c r="D22" s="22">
+        <v>43961</v>
       </c>
       <c r="E22" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="F22" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="G22" s="20">
+        <v>70</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="0"/>
+        <v>47374.799999999988</v>
+      </c>
+      <c r="H22" s="17">
+        <f>IF(ISBLANK(K22),G22+(E22/(Timeline!$B$3/7)),K22)</f>
+        <v>47423.799999999988</v>
+      </c>
+      <c r="I22" s="16">
         <f t="shared" si="1"/>
-        <v>46417.8</v>
-      </c>
-      <c r="H22" s="17">
-        <f>if(isblank(K22),G22+(E22/(Timeline!$B$3/7)),K22)</f>
-        <v>46466.8</v>
-      </c>
-      <c r="I22" s="20">
-        <f t="shared" si="2"/>
-        <v>47117.8</v>
+        <v>48074.799999999988</v>
       </c>
       <c r="J22" s="17">
-        <f>if(isblank(K22),I22+(F22/(Timeline!$B$3/7)),K22)</f>
-        <v>47215.8</v>
-      </c>
-      <c r="K22" s="22"/>
-    </row>
-    <row r="23">
+        <f>IF(ISBLANK(K22),I22+(F22/(Timeline!$B$3/7)),K22)</f>
+        <v>48172.799999999988</v>
+      </c>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
@@ -1922,34 +2365,34 @@
         <v>51</v>
       </c>
       <c r="C23" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="G23" s="20">
+        <v>19</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="0"/>
+        <v>47423.799999999988</v>
+      </c>
+      <c r="H23" s="17">
+        <f>IF(ISBLANK(K23),G23+(E23/(Timeline!$B$3/7)),K23)</f>
+        <v>47450.399999999987</v>
+      </c>
+      <c r="I23" s="16">
         <f t="shared" si="1"/>
-        <v>46466.8</v>
-      </c>
-      <c r="H23" s="17">
-        <f>if(isblank(K23),G23+(E23/(Timeline!$B$3/7)),K23)</f>
-        <v>46493.4</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="2"/>
-        <v>47215.8</v>
+        <v>48172.799999999988</v>
       </c>
       <c r="J23" s="17">
-        <f>if(isblank(K23),I23+(F23/(Timeline!$B$3/7)),K23)</f>
-        <v>47242.4</v>
-      </c>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24">
+        <f>IF(ISBLANK(K23),I23+(F23/(Timeline!$B$3/7)),K23)</f>
+        <v>48199.399999999987</v>
+      </c>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
@@ -1957,34 +2400,34 @@
         <v>51</v>
       </c>
       <c r="C24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="G24" s="20">
+        <v>10</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="0"/>
+        <v>47450.399999999987</v>
+      </c>
+      <c r="H24" s="17">
+        <f>IF(ISBLANK(K24),G24+(E24/(Timeline!$B$3/7)),K24)</f>
+        <v>47464.399999999987</v>
+      </c>
+      <c r="I24" s="16">
         <f t="shared" si="1"/>
-        <v>46493.4</v>
-      </c>
-      <c r="H24" s="17">
-        <f>if(isblank(K24),G24+(E24/(Timeline!$B$3/7)),K24)</f>
-        <v>46507.4</v>
-      </c>
-      <c r="I24" s="20">
-        <f t="shared" si="2"/>
-        <v>47242.4</v>
+        <v>48199.399999999987</v>
       </c>
       <c r="J24" s="17">
-        <f>if(isblank(K24),I24+(F24/(Timeline!$B$3/7)),K24)</f>
-        <v>47256.4</v>
-      </c>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25">
+        <f>IF(ISBLANK(K24),I24+(F24/(Timeline!$B$3/7)),K24)</f>
+        <v>48213.399999999987</v>
+      </c>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
@@ -1992,36 +2435,36 @@
         <v>51</v>
       </c>
       <c r="C25" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D25" s="23">
-        <v>43832.0</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="22">
+        <v>43832</v>
       </c>
       <c r="E25" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="G25" s="20">
+        <v>16</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="0"/>
+        <v>47464.399999999987</v>
+      </c>
+      <c r="H25" s="17">
+        <f>IF(ISBLANK(K25),G25+(E25/(Timeline!$B$3/7)),K25)</f>
+        <v>47475.599999999984</v>
+      </c>
+      <c r="I25" s="16">
         <f t="shared" si="1"/>
-        <v>46507.4</v>
-      </c>
-      <c r="H25" s="17">
-        <f>if(isblank(K25),G25+(E25/(Timeline!$B$3/7)),K25)</f>
-        <v>46518.6</v>
-      </c>
-      <c r="I25" s="20">
-        <f t="shared" si="2"/>
-        <v>47256.4</v>
+        <v>48213.399999999987</v>
       </c>
       <c r="J25" s="17">
-        <f>if(isblank(K25),I25+(F25/(Timeline!$B$3/7)),K25)</f>
-        <v>47278.8</v>
-      </c>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26">
+        <f>IF(ISBLANK(K25),I25+(F25/(Timeline!$B$3/7)),K25)</f>
+        <v>48235.799999999988</v>
+      </c>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>54</v>
       </c>
@@ -2029,34 +2472,34 @@
         <v>55</v>
       </c>
       <c r="C26" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2">
-        <v>60.0</v>
-      </c>
-      <c r="G26" s="20">
+        <v>60</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="0"/>
+        <v>47475.599999999984</v>
+      </c>
+      <c r="H26" s="17">
+        <f>IF(ISBLANK(K26),G26+(E26/(Timeline!$B$3/7)),K26)</f>
+        <v>47559.599999999984</v>
+      </c>
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
-        <v>46518.6</v>
-      </c>
-      <c r="H26" s="17">
-        <f>if(isblank(K26),G26+(E26/(Timeline!$B$3/7)),K26)</f>
-        <v>46602.6</v>
-      </c>
-      <c r="I26" s="20">
-        <f t="shared" si="2"/>
-        <v>47278.8</v>
+        <v>48235.799999999988</v>
       </c>
       <c r="J26" s="17">
-        <f>if(isblank(K26),I26+(F26/(Timeline!$B$3/7)),K26)</f>
-        <v>47362.8</v>
-      </c>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27">
+        <f>IF(ISBLANK(K26),I26+(F26/(Timeline!$B$3/7)),K26)</f>
+        <v>48319.799999999988</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>56</v>
       </c>
@@ -2064,36 +2507,36 @@
         <v>55</v>
       </c>
       <c r="C27" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D27" s="23">
-        <v>43961.0</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="22">
+        <v>43961</v>
       </c>
       <c r="E27" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="G27" s="20">
+        <v>100</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="0"/>
+        <v>47559.599999999984</v>
+      </c>
+      <c r="H27" s="17">
+        <f>IF(ISBLANK(K27),G27+(E27/(Timeline!$B$3/7)),K27)</f>
+        <v>47629.599999999984</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>46602.6</v>
-      </c>
-      <c r="H27" s="17">
-        <f>if(isblank(K27),G27+(E27/(Timeline!$B$3/7)),K27)</f>
-        <v>46672.6</v>
-      </c>
-      <c r="I27" s="20">
-        <f t="shared" si="2"/>
-        <v>47362.8</v>
+        <v>48319.799999999988</v>
       </c>
       <c r="J27" s="17">
-        <f>if(isblank(K27),I27+(F27/(Timeline!$B$3/7)),K27)</f>
-        <v>47502.8</v>
-      </c>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28">
+        <f>IF(ISBLANK(K27),I27+(F27/(Timeline!$B$3/7)),K27)</f>
+        <v>48459.799999999988</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>57</v>
       </c>
@@ -2101,36 +2544,36 @@
         <v>55</v>
       </c>
       <c r="C28" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D28" s="23">
-        <v>43961.0</v>
+        <v>7</v>
+      </c>
+      <c r="D28" s="22">
+        <v>43961</v>
       </c>
       <c r="E28" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="G28" s="20">
+        <v>70</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="0"/>
+        <v>47629.599999999984</v>
+      </c>
+      <c r="H28" s="17">
+        <f>IF(ISBLANK(K28),G28+(E28/(Timeline!$B$3/7)),K28)</f>
+        <v>47678.599999999984</v>
+      </c>
+      <c r="I28" s="16">
         <f t="shared" si="1"/>
-        <v>46672.6</v>
-      </c>
-      <c r="H28" s="17">
-        <f>if(isblank(K28),G28+(E28/(Timeline!$B$3/7)),K28)</f>
-        <v>46721.6</v>
-      </c>
-      <c r="I28" s="20">
-        <f t="shared" si="2"/>
-        <v>47502.8</v>
+        <v>48459.799999999988</v>
       </c>
       <c r="J28" s="17">
-        <f>if(isblank(K28),I28+(F28/(Timeline!$B$3/7)),K28)</f>
-        <v>47600.8</v>
-      </c>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29">
+        <f>IF(ISBLANK(K28),I28+(F28/(Timeline!$B$3/7)),K28)</f>
+        <v>48557.799999999988</v>
+      </c>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>58</v>
       </c>
@@ -2138,251 +2581,251 @@
         <v>55</v>
       </c>
       <c r="C29" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="F29" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="G29" s="20">
+        <v>22</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="0"/>
+        <v>47678.599999999984</v>
+      </c>
+      <c r="H29" s="17">
+        <f>IF(ISBLANK(K29),G29+(E29/(Timeline!$B$3/7)),K29)</f>
+        <v>47709.399999999987</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="1"/>
-        <v>46721.6</v>
-      </c>
-      <c r="H29" s="17">
-        <f>if(isblank(K29),G29+(E29/(Timeline!$B$3/7)),K29)</f>
-        <v>46752.4</v>
-      </c>
-      <c r="I29" s="20">
-        <f t="shared" si="2"/>
-        <v>47600.8</v>
+        <v>48557.799999999988</v>
       </c>
       <c r="J29" s="17">
-        <f>if(isblank(K29),I29+(F29/(Timeline!$B$3/7)),K29)</f>
-        <v>47631.6</v>
-      </c>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="24"/>
+        <f>IF(ISBLANK(K29),I29+(F29/(Timeline!$B$3/7)),K29)</f>
+        <v>48588.599999999991</v>
+      </c>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="24"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="24"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="H32" s="17"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="22"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="24"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="H33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="24"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="H34" s="17"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="24"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="H35" s="17"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="24"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="H36" s="17"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="24"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="H37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="24"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="H38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="24"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="H39" s="17"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="24"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="H40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="24"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="H41" s="17"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="24"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="H42" s="17"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="24"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="17"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="24"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="H44" s="17"/>
       <c r="J44" s="17"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="24"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="H45" s="17"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="24"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="H46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="24"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="H47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48">
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="H48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="25"/>
+      <c r="K48" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>